--- a/test-data/AF1_BF1_BF4-1.xlsx
+++ b/test-data/AF1_BF1_BF4-1.xlsx
@@ -597,11 +597,7 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E2" s="4" t="n"/>
       <c r="F2" s="4" t="n"/>
     </row>
     <row r="3">
@@ -625,11 +621,7 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E3" s="4" t="n"/>
       <c r="F3" s="4" t="n"/>
     </row>
     <row r="4">
@@ -653,11 +645,7 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E4" s="4" t="n"/>
       <c r="F4" s="4" t="n"/>
     </row>
     <row r="5">
@@ -677,11 +665,7 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E5" s="4" t="n"/>
       <c r="F5" s="4" t="n"/>
     </row>
     <row r="6">
@@ -705,11 +689,7 @@
           <t>fail</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E6" s="4" t="n"/>
       <c r="F6" s="4" t="n"/>
     </row>
     <row r="7">
@@ -733,11 +713,7 @@
           <t>fail</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E7" s="4" t="n"/>
       <c r="F7" s="4" t="n"/>
     </row>
     <row r="8">
@@ -761,11 +737,7 @@
           <t>fail</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="E8" s="4" t="n"/>
       <c r="F8" s="4" t="n"/>
     </row>
     <row r="9">
@@ -789,11 +761,6 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -816,11 +783,6 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -839,11 +801,6 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -866,11 +823,6 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -893,11 +845,6 @@
           <t>success</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -918,11 +865,6 @@
       <c r="D14" s="7" t="inlineStr">
         <is>
           <t>fail</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>success</t>
         </is>
       </c>
     </row>
@@ -8201,133 +8143,288 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>CP-001</t>
+          <t>CP-002</t>
         </is>
       </c>
       <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
-      <c r="D2" s="5" t="n"/>
-      <c r="E2" s="5" t="n"/>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2003</t>
+        </is>
+      </c>
+      <c r="E2" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2003</t>
+        </is>
+      </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G2" s="4" t="n"/>
+      <c r="G2" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>CP-002</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="n"/>
-      <c r="C3" s="5" t="n"/>
-      <c r="D3" s="5" t="n"/>
-      <c r="E3" s="5" t="n"/>
+          <t>CP-003</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_20</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
+        </is>
+      </c>
+      <c r="E3" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
+        </is>
+      </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G3" s="4" t="n"/>
+      <c r="G3" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>CP-003</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="n"/>
-      <c r="C4" s="5" t="n"/>
-      <c r="D4" s="5" t="n"/>
-      <c r="E4" s="5" t="n"/>
+          <t>CP-004</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="E4" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G4" s="4" t="n"/>
+      <c r="G4" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>CP-004</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n"/>
-      <c r="C5" s="5" t="n"/>
-      <c r="D5" s="5" t="n"/>
-      <c r="E5" s="5" t="n"/>
+          <t>CP-005</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat</t>
+        </is>
+      </c>
+      <c r="E5" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat</t>
+        </is>
+      </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n"/>
+      <c r="G5" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H5" s="4" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>CP-005</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="n"/>
-      <c r="C6" s="5" t="n"/>
-      <c r="D6" s="5" t="n"/>
-      <c r="E6" s="5" t="n"/>
+          <t>CP-006</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001Tan_Dat_2001</t>
+        </is>
+      </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n"/>
+      <c r="G6" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H6" s="4" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>CP-006</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
+          <t>CP-007</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2003</t>
+        </is>
+      </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n"/>
+      <c r="G7" s="4" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
       <c r="H7" s="4" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>CP-007</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
+          <t>CP-008</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux123</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
+        </is>
+      </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
           <t>success</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n"/>
-      <c r="H8" s="4" t="n"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>fail</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>CP-008</t>
+          <t>CP-001</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>dat.nguyen.jinnux</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2001</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr">
+        <is>
+          <t>Tan_Dat_2002</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
@@ -8335,6 +8432,12 @@
           <t>success</t>
         </is>
       </c>
+      <c r="G9" s="4" t="inlineStr">
+        <is>
+          <t>success</t>
+        </is>
+      </c>
+      <c r="H9" s="4" t="n"/>
     </row>
     <row r="10">
       <c r="F10" s="4" t="n"/>
